--- a/data-file/file/import/肯发精密仪器（深圳）有限公司COMPART PRECISION SHENZHEN COLTD.xlsx
+++ b/data-file/file/import/肯发精密仪器（深圳）有限公司COMPART PRECISION SHENZHEN COLTD.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -4147,11 +4147,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4226,21 +4226,22 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4248,6 +4249,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4279,7 +4348,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4300,14 +4369,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4374,7 +4443,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4409,7 +4477,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4585,14 +4652,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="20.75" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
@@ -4608,152 +4675,154 @@
     <col min="28" max="28" width="10.75" customWidth="1"/>
     <col min="29" max="31" width="20.75" customWidth="1"/>
     <col min="32" max="32" width="10.75" customWidth="1"/>
+    <col min="37" max="37" width="18" customWidth="1"/>
+    <col min="38" max="38" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:40" ht="15">
+      <c r="A1" s="7"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+    <row r="2" spans="1:40" ht="15">
+      <c r="A2" s="7"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:40">
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:40">
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:40">
+      <c r="A5" s="7"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:40">
+      <c r="A6" s="5" t="s">
         <v>1340</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>1341</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>1342</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>1343</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>1344</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>1345</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>1346</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>1347</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>1348</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>1349</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>1350</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>1351</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>1352</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>1353</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>1354</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="6" t="s">
         <v>1356</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="6" t="s">
         <v>1357</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="6" t="s">
         <v>1358</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="6" t="s">
         <v>1359</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="6" t="s">
         <v>1358</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="6" t="s">
         <v>1360</v>
       </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7" t="s">
+      <c r="W6" s="6"/>
+      <c r="X6" s="6" t="s">
         <v>1361</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Y6" s="6" t="s">
         <v>1362</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="Z6" s="6" t="s">
         <v>1363</v>
       </c>
-      <c r="AA6" s="7" t="s">
+      <c r="AA6" s="6" t="s">
         <v>1364</v>
       </c>
-      <c r="AB6" s="7" t="s">
+      <c r="AB6" s="6" t="s">
         <v>1365</v>
       </c>
-      <c r="AC6" s="7" t="s">
+      <c r="AC6" s="6" t="s">
         <v>1366</v>
       </c>
-      <c r="AD6" s="7" t="s">
+      <c r="AD6" s="6" t="s">
         <v>1367</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AE6" s="6" t="s">
         <v>1368</v>
       </c>
-      <c r="AF6" s="7" t="s">
+      <c r="AF6" s="6" t="s">
         <v>1369</v>
       </c>
-      <c r="AG6" s="7" t="s">
+      <c r="AG6" s="6" t="s">
         <v>1370</v>
       </c>
-      <c r="AH6" s="7" t="s">
+      <c r="AH6" s="6" t="s">
         <v>1371</v>
       </c>
-      <c r="AI6" s="7" t="s">
+      <c r="AI6" s="6" t="s">
         <v>1372</v>
       </c>
-      <c r="AJ6" s="7" t="s">
+      <c r="AJ6" s="6" t="s">
         <v>1373</v>
       </c>
-      <c r="AK6" s="7" t="s">
+      <c r="AK6" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="AL6" s="7" t="s">
+      <c r="AL6" s="6" t="s">
         <v>1375</v>
       </c>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
     </row>
-    <row r="7" spans="1:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -4869,7 +4938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -4879,7 +4948,7 @@
       <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <v>43096</v>
       </c>
       <c r="E8">
@@ -4985,7 +5054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -5101,7 +5170,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -5217,7 +5286,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -5333,7 +5402,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -5449,7 +5518,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -5565,7 +5634,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -5681,7 +5750,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -5797,7 +5866,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -5913,7 +5982,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:38">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -6029,7 +6098,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:38">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -6145,7 +6214,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:38">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -6261,7 +6330,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:38">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -6377,7 +6446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:38">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -6493,7 +6562,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:38">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -6609,7 +6678,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:38">
       <c r="A23" t="s">
         <v>182</v>
       </c>
@@ -6725,7 +6794,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:38">
       <c r="A24" t="s">
         <v>193</v>
       </c>
@@ -6841,7 +6910,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:38">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -6957,7 +7026,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:38">
       <c r="A26" t="s">
         <v>212</v>
       </c>
@@ -7073,7 +7142,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:38">
       <c r="A27" t="s">
         <v>230</v>
       </c>
@@ -7189,7 +7258,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:38">
       <c r="A28" t="s">
         <v>193</v>
       </c>
@@ -7305,7 +7374,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:38">
       <c r="A29" t="s">
         <v>248</v>
       </c>
@@ -7421,7 +7490,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:38">
       <c r="A30" t="s">
         <v>264</v>
       </c>
@@ -7537,7 +7606,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:38">
       <c r="A31" t="s">
         <v>193</v>
       </c>
@@ -7653,7 +7722,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:38">
       <c r="A32" t="s">
         <v>280</v>
       </c>
@@ -7769,7 +7838,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:38">
       <c r="A33" t="s">
         <v>287</v>
       </c>
@@ -7885,7 +7954,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:38">
       <c r="A34" t="s">
         <v>305</v>
       </c>
@@ -8001,7 +8070,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:38">
       <c r="A35" t="s">
         <v>280</v>
       </c>
@@ -8117,7 +8186,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:38">
       <c r="A36" t="s">
         <v>193</v>
       </c>
@@ -8233,7 +8302,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:38">
       <c r="A37" t="s">
         <v>193</v>
       </c>
@@ -8349,7 +8418,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:38">
       <c r="A38" t="s">
         <v>193</v>
       </c>
@@ -8465,7 +8534,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:38">
       <c r="A39" t="s">
         <v>338</v>
       </c>
@@ -8581,7 +8650,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:38">
       <c r="A40" t="s">
         <v>345</v>
       </c>
@@ -8697,7 +8766,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:38">
       <c r="A41" t="s">
         <v>193</v>
       </c>
@@ -8813,7 +8882,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:38">
       <c r="A42" t="s">
         <v>363</v>
       </c>
@@ -8929,7 +8998,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:38">
       <c r="A43" t="s">
         <v>370</v>
       </c>
@@ -9045,7 +9114,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:38">
       <c r="A44" t="s">
         <v>280</v>
       </c>
@@ -9161,7 +9230,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:38">
       <c r="A45" t="s">
         <v>382</v>
       </c>
@@ -9277,7 +9346,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:38">
       <c r="A46" t="s">
         <v>390</v>
       </c>
@@ -9393,7 +9462,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:38">
       <c r="A47" t="s">
         <v>193</v>
       </c>
@@ -9509,7 +9578,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:38">
       <c r="A48" t="s">
         <v>193</v>
       </c>
@@ -9625,7 +9694,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:38">
       <c r="A49" t="s">
         <v>409</v>
       </c>
@@ -9741,7 +9810,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:38">
       <c r="A50" t="s">
         <v>417</v>
       </c>
@@ -9857,7 +9926,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:38">
       <c r="A51" t="s">
         <v>193</v>
       </c>
@@ -9973,7 +10042,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:38">
       <c r="A52" t="s">
         <v>193</v>
       </c>
@@ -10089,7 +10158,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:38">
       <c r="A53" t="s">
         <v>193</v>
       </c>
@@ -10205,7 +10274,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:38">
       <c r="A54" t="s">
         <v>446</v>
       </c>
@@ -10321,7 +10390,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:38">
       <c r="A55" t="s">
         <v>193</v>
       </c>
@@ -10437,7 +10506,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:38">
       <c r="A56" t="s">
         <v>363</v>
       </c>
@@ -10553,7 +10622,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:38">
       <c r="A57" t="s">
         <v>193</v>
       </c>
@@ -10669,7 +10738,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:38">
       <c r="A58" t="s">
         <v>193</v>
       </c>
@@ -10785,7 +10854,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:38">
       <c r="A59" t="s">
         <v>475</v>
       </c>
@@ -10901,7 +10970,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:38">
       <c r="A60" t="s">
         <v>193</v>
       </c>
@@ -11017,7 +11086,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:38">
       <c r="A61" t="s">
         <v>490</v>
       </c>
@@ -11133,7 +11202,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:38">
       <c r="A62" t="s">
         <v>498</v>
       </c>
@@ -11249,7 +11318,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:38">
       <c r="A63" t="s">
         <v>193</v>
       </c>
@@ -11365,7 +11434,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:38">
       <c r="A64" t="s">
         <v>513</v>
       </c>
@@ -11481,7 +11550,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:38">
       <c r="A65" t="s">
         <v>520</v>
       </c>
@@ -11597,7 +11666,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:38">
       <c r="A66" t="s">
         <v>526</v>
       </c>
@@ -11713,7 +11782,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:38">
       <c r="A67" t="s">
         <v>544</v>
       </c>
@@ -11829,7 +11898,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:38">
       <c r="A68" t="s">
         <v>551</v>
       </c>
@@ -11945,7 +12014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:38">
       <c r="A69" t="s">
         <v>558</v>
       </c>
@@ -12061,7 +12130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:38">
       <c r="A70" t="s">
         <v>564</v>
       </c>
@@ -12177,7 +12246,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:38">
       <c r="A71" t="s">
         <v>571</v>
       </c>
@@ -12293,7 +12362,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:38">
       <c r="A72" t="s">
         <v>579</v>
       </c>
@@ -12409,7 +12478,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:38">
       <c r="A73" t="s">
         <v>584</v>
       </c>
@@ -12525,7 +12594,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:38">
       <c r="A74" t="s">
         <v>592</v>
       </c>
@@ -12641,7 +12710,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:38">
       <c r="A75" t="s">
         <v>599</v>
       </c>
@@ -12757,7 +12826,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:38">
       <c r="A76" t="s">
         <v>607</v>
       </c>
@@ -12873,7 +12942,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:38">
       <c r="A77" t="s">
         <v>614</v>
       </c>
@@ -12989,7 +13058,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:38">
       <c r="A78" t="s">
         <v>621</v>
       </c>
@@ -13105,7 +13174,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:38">
       <c r="A79" t="s">
         <v>627</v>
       </c>
@@ -13221,7 +13290,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:38">
       <c r="A80" t="s">
         <v>635</v>
       </c>
@@ -13337,7 +13406,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:38">
       <c r="A81" t="s">
         <v>641</v>
       </c>
@@ -13453,7 +13522,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:38">
       <c r="A82" t="s">
         <v>649</v>
       </c>
@@ -13569,7 +13638,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:38">
       <c r="A83" t="s">
         <v>656</v>
       </c>
@@ -13685,7 +13754,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:38">
       <c r="A84" t="s">
         <v>664</v>
       </c>
@@ -13801,7 +13870,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:38">
       <c r="A85" t="s">
         <v>670</v>
       </c>
@@ -13917,7 +13986,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:38">
       <c r="A86" t="s">
         <v>676</v>
       </c>
@@ -14033,7 +14102,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:38">
       <c r="A87" t="s">
         <v>683</v>
       </c>
@@ -14149,7 +14218,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:38">
       <c r="A88" t="s">
         <v>686</v>
       </c>
@@ -14265,7 +14334,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:38">
       <c r="A89" t="s">
         <v>694</v>
       </c>
@@ -14381,7 +14450,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:38">
       <c r="A90" t="s">
         <v>701</v>
       </c>
@@ -14497,7 +14566,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:38">
       <c r="A91" t="s">
         <v>707</v>
       </c>
@@ -14613,7 +14682,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:38">
       <c r="A92" t="s">
         <v>713</v>
       </c>
@@ -14729,7 +14798,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:38">
       <c r="A93" t="s">
         <v>719</v>
       </c>
@@ -14845,7 +14914,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:38">
       <c r="A94" t="s">
         <v>725</v>
       </c>
@@ -14961,7 +15030,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:38">
       <c r="A95" t="s">
         <v>730</v>
       </c>
@@ -15077,7 +15146,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:38">
       <c r="A96" t="s">
         <v>736</v>
       </c>
@@ -15193,7 +15262,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:38">
       <c r="A97" t="s">
         <v>741</v>
       </c>
@@ -15309,7 +15378,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:38">
       <c r="A98" t="s">
         <v>748</v>
       </c>
@@ -15425,7 +15494,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:38">
       <c r="A99" t="s">
         <v>754</v>
       </c>
@@ -15541,7 +15610,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:38">
       <c r="A100" t="s">
         <v>760</v>
       </c>
@@ -15657,7 +15726,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:38">
       <c r="A101" t="s">
         <v>767</v>
       </c>
@@ -15773,7 +15842,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:38">
       <c r="A102" t="s">
         <v>774</v>
       </c>
@@ -15889,7 +15958,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:38">
       <c r="A103" t="s">
         <v>780</v>
       </c>
@@ -16005,7 +16074,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:38">
       <c r="A104" t="s">
         <v>787</v>
       </c>
@@ -16121,7 +16190,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:38">
       <c r="A105" t="s">
         <v>793</v>
       </c>
@@ -16237,7 +16306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:38">
       <c r="A106" t="s">
         <v>799</v>
       </c>
@@ -16353,7 +16422,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:38">
       <c r="A107" t="s">
         <v>805</v>
       </c>
@@ -16469,7 +16538,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:38">
       <c r="A108" t="s">
         <v>811</v>
       </c>
@@ -16585,7 +16654,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:38">
       <c r="A109" t="s">
         <v>818</v>
       </c>
@@ -16701,7 +16770,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:38">
       <c r="A110" t="s">
         <v>824</v>
       </c>
@@ -16817,7 +16886,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:38">
       <c r="A111" t="s">
         <v>830</v>
       </c>
@@ -16933,7 +17002,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:38">
       <c r="A112" t="s">
         <v>836</v>
       </c>
@@ -17049,7 +17118,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:38">
       <c r="A113" t="s">
         <v>842</v>
       </c>
@@ -17165,7 +17234,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:38">
       <c r="A114" t="s">
         <v>849</v>
       </c>
@@ -17281,7 +17350,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:38">
       <c r="A115" t="s">
         <v>856</v>
       </c>
@@ -17397,7 +17466,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:38">
       <c r="A116" t="s">
         <v>862</v>
       </c>
@@ -17513,7 +17582,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:38">
       <c r="A117" t="s">
         <v>868</v>
       </c>
@@ -17629,7 +17698,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:38">
       <c r="A118" t="s">
         <v>842</v>
       </c>
@@ -17745,7 +17814,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:38">
       <c r="A119" t="s">
         <v>878</v>
       </c>
@@ -17861,7 +17930,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:38">
       <c r="A120" t="s">
         <v>885</v>
       </c>
@@ -17977,7 +18046,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:38">
       <c r="A121" t="s">
         <v>891</v>
       </c>
@@ -18093,7 +18162,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:38">
       <c r="A122" t="s">
         <v>897</v>
       </c>
@@ -18209,7 +18278,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:38">
       <c r="A123" t="s">
         <v>914</v>
       </c>
@@ -18325,7 +18394,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:38">
       <c r="A124" t="s">
         <v>922</v>
       </c>
@@ -18441,7 +18510,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:38">
       <c r="A125" t="s">
         <v>928</v>
       </c>
@@ -18557,7 +18626,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:38">
       <c r="A126" t="s">
         <v>935</v>
       </c>
@@ -18673,7 +18742,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:38">
       <c r="A127" t="s">
         <v>942</v>
       </c>
@@ -18789,7 +18858,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:38">
       <c r="A128" t="s">
         <v>551</v>
       </c>
@@ -18905,7 +18974,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:38">
       <c r="A129" t="s">
         <v>954</v>
       </c>
@@ -19021,7 +19090,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:38">
       <c r="A130" t="s">
         <v>962</v>
       </c>
@@ -19137,7 +19206,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:38">
       <c r="A131" t="s">
         <v>971</v>
       </c>
@@ -19253,7 +19322,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:38">
       <c r="A132" t="s">
         <v>976</v>
       </c>
@@ -19369,7 +19438,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:38">
       <c r="A133" t="s">
         <v>551</v>
       </c>
@@ -19485,7 +19554,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:38">
       <c r="A134" t="s">
         <v>987</v>
       </c>
@@ -19601,7 +19670,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:38">
       <c r="A135" t="s">
         <v>996</v>
       </c>
@@ -19717,7 +19786,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:38">
       <c r="A136" t="s">
         <v>280</v>
       </c>
@@ -19833,7 +19902,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:38">
       <c r="A137" t="s">
         <v>1011</v>
       </c>
@@ -19949,7 +20018,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:38">
       <c r="A138" t="s">
         <v>193</v>
       </c>
@@ -20065,7 +20134,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:38">
       <c r="A139" t="s">
         <v>551</v>
       </c>
@@ -20181,7 +20250,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:38">
       <c r="A140" t="s">
         <v>1033</v>
       </c>
@@ -20297,7 +20366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:38">
       <c r="A141" t="s">
         <v>1040</v>
       </c>
@@ -20413,7 +20482,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:38">
       <c r="A142" t="s">
         <v>1047</v>
       </c>
@@ -20529,7 +20598,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:38">
       <c r="A143" t="s">
         <v>1053</v>
       </c>
@@ -20645,7 +20714,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:38">
       <c r="A144" t="s">
         <v>107</v>
       </c>
@@ -20761,7 +20830,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:38">
       <c r="A145" t="s">
         <v>1067</v>
       </c>
@@ -20877,7 +20946,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:38">
       <c r="A146" t="s">
         <v>1073</v>
       </c>
@@ -20993,7 +21062,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:38">
       <c r="A147" t="s">
         <v>1078</v>
       </c>
@@ -21109,7 +21178,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:38">
       <c r="A148" t="s">
         <v>1085</v>
       </c>
@@ -21225,7 +21294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:38">
       <c r="A149" t="s">
         <v>1092</v>
       </c>
@@ -21341,7 +21410,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:38">
       <c r="A150" t="s">
         <v>280</v>
       </c>
@@ -21457,7 +21526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:38">
       <c r="A151" t="s">
         <v>107</v>
       </c>
@@ -21573,7 +21642,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:38">
       <c r="A152" t="s">
         <v>193</v>
       </c>
@@ -21689,7 +21758,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:38">
       <c r="A153" t="s">
         <v>1067</v>
       </c>
@@ -21805,7 +21874,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:38">
       <c r="A154" t="s">
         <v>1115</v>
       </c>
@@ -21921,7 +21990,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:38">
       <c r="A155" t="s">
         <v>1085</v>
       </c>
@@ -22037,7 +22106,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:38">
       <c r="A156" t="s">
         <v>193</v>
       </c>
@@ -22153,7 +22222,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:38">
       <c r="A157" t="s">
         <v>1130</v>
       </c>
@@ -22269,7 +22338,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:38">
       <c r="A158" t="s">
         <v>1139</v>
       </c>
@@ -22385,7 +22454,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:38">
       <c r="A159" t="s">
         <v>1067</v>
       </c>
@@ -22501,7 +22570,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:38">
       <c r="A160" t="s">
         <v>1150</v>
       </c>
@@ -22617,7 +22686,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:38">
       <c r="A161" t="s">
         <v>1160</v>
       </c>
@@ -22733,7 +22802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:38">
       <c r="A162" t="s">
         <v>1130</v>
       </c>
@@ -22849,7 +22918,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:38">
       <c r="A163" t="s">
         <v>1172</v>
       </c>
@@ -22965,7 +23034,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:38">
       <c r="A164" t="s">
         <v>1177</v>
       </c>
@@ -23081,7 +23150,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:38">
       <c r="A165" t="s">
         <v>42</v>
       </c>
@@ -23197,7 +23266,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:38">
       <c r="A166" t="s">
         <v>1067</v>
       </c>
@@ -23313,7 +23382,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:38">
       <c r="A167" t="s">
         <v>1193</v>
       </c>
@@ -23429,7 +23498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:38">
       <c r="A168" t="s">
         <v>1177</v>
       </c>
@@ -23545,7 +23614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:38">
       <c r="A169" t="s">
         <v>107</v>
       </c>
@@ -23661,7 +23730,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:38">
       <c r="A170" t="s">
         <v>280</v>
       </c>
@@ -23777,7 +23846,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:38">
       <c r="A171" t="s">
         <v>1212</v>
       </c>
@@ -23893,7 +23962,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:38">
       <c r="A172" t="s">
         <v>1177</v>
       </c>
@@ -24009,7 +24078,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:38">
       <c r="A173" t="s">
         <v>1221</v>
       </c>
@@ -24125,7 +24194,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:38">
       <c r="A174" t="s">
         <v>1226</v>
       </c>
@@ -24241,7 +24310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:38">
       <c r="A175" t="s">
         <v>1231</v>
       </c>
@@ -24357,7 +24426,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:38">
       <c r="A176" t="s">
         <v>1235</v>
       </c>
@@ -24473,7 +24542,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:38">
       <c r="A177" t="s">
         <v>1242</v>
       </c>
@@ -24589,7 +24658,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:38">
       <c r="A178" t="s">
         <v>107</v>
       </c>
@@ -24705,7 +24774,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:38">
       <c r="A179" t="s">
         <v>280</v>
       </c>
@@ -24821,7 +24890,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:38">
       <c r="A180" t="s">
         <v>1242</v>
       </c>
@@ -24937,7 +25006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:38">
       <c r="A181" t="s">
         <v>1260</v>
       </c>
@@ -25053,7 +25122,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:38">
       <c r="A182" t="s">
         <v>1265</v>
       </c>
@@ -25169,7 +25238,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:38">
       <c r="A183" t="s">
         <v>280</v>
       </c>
@@ -25285,7 +25354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:38">
       <c r="A184" t="s">
         <v>1274</v>
       </c>
@@ -25401,7 +25470,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:38">
       <c r="A185" t="s">
         <v>1279</v>
       </c>
@@ -25517,7 +25586,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:38">
       <c r="A186" t="s">
         <v>42</v>
       </c>
@@ -25633,7 +25702,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:38">
       <c r="A187" t="s">
         <v>107</v>
       </c>
@@ -25749,7 +25818,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:38">
       <c r="A188" t="s">
         <v>107</v>
       </c>
@@ -25865,7 +25934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:38">
       <c r="A189" t="s">
         <v>1300</v>
       </c>
@@ -25981,7 +26050,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:38">
       <c r="A190" t="s">
         <v>1314</v>
       </c>
@@ -26097,7 +26166,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:38">
       <c r="A191" t="s">
         <v>1314</v>
       </c>
